--- a/biology/Zoologie/Erythrolamprus_ocellatus/Erythrolamprus_ocellatus.xlsx
+++ b/biology/Zoologie/Erythrolamprus_ocellatus/Erythrolamprus_ocellatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erythrolamprus ocellatus  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erythrolamprus ocellatus  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Tobago à Trinité-et-Tobago[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Tobago à Trinité-et-Tobago.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Peters, 1869 "1868" : Über neue Säugethiere (Colobus, Rhinolophus, Vesperus) und neue oder weniger bekannte Amphibien (Hemidactylus, Herpetodryas, Spilotes, Elaphis, Lamprophis, Erythrolamprus). Monatsberichte der Königlichen Preussischen Akademie der Wissenschaften zu Berlin, vol. 1868, p. 637-642 (texte intégral).</t>
         </is>
